--- a/是否扩张.xlsx
+++ b/是否扩张.xlsx
@@ -1074,7 +1074,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">

--- a/是否扩张.xlsx
+++ b/是否扩张.xlsx
@@ -882,7 +882,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1146,7 +1146,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">

--- a/是否扩张.xlsx
+++ b/是否扩张.xlsx
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +746,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -786,7 +786,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -834,7 +834,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -858,7 +858,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -882,7 +882,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -938,7 +938,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -954,7 +954,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -970,7 +970,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -994,7 +994,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1026,7 +1026,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1066,7 +1066,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1098,7 +1098,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1130,7 +1130,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1146,7 +1146,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1162,7 +1162,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1194,7 +1194,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1226,7 +1226,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">

--- a/是否扩张.xlsx
+++ b/是否扩张.xlsx
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -754,7 +754,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1226,7 +1226,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">

--- a/是否扩张.xlsx
+++ b/是否扩张.xlsx
@@ -754,7 +754,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1226,7 +1226,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">

--- a/是否扩张.xlsx
+++ b/是否扩张.xlsx
@@ -754,7 +754,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1226,7 +1226,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
